--- a/Barroc IT - Documentatie/Tom/agenda 28-09-2015.xlsx
+++ b/Barroc IT - Documentatie/Tom/agenda 28-09-2015.xlsx
@@ -157,9 +157,6 @@
     <t>Groep</t>
   </si>
   <si>
-    <t>Locatie: Lokaal BN0328</t>
-  </si>
-  <si>
     <t>Voorzitter: Tom</t>
   </si>
   <si>
@@ -182,6 +179,9 @@
   </si>
   <si>
     <t>Tijd: 10:00 - 10:30</t>
+  </si>
+  <si>
+    <t>Locatie: Lokaal BN0330</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="72" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C3" s="73"/>
       <c r="D3" s="74"/>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="82"/>
       <c r="D4" s="83"/>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="85"/>
       <c r="D5" s="86"/>
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="67"/>
       <c r="H8" s="38"/>
@@ -1186,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="38"/>
@@ -1206,7 +1206,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="40"/>
       <c r="H10" s="38"/>
@@ -1226,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="39"/>
@@ -1359,7 +1359,7 @@
       <c r="F21" s="19"/>
       <c r="G21" s="63"/>
       <c r="H21" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1374,7 +1374,7 @@
       <c r="F22" s="22"/>
       <c r="G22" s="64"/>
       <c r="H22" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1600,6 +1600,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1648,12 +1654,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
   <ds:schemaRefs>
@@ -1663,6 +1663,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1675,18 +1689,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Barroc IT - Documentatie/Tom/agenda 28-09-2015.xlsx
+++ b/Barroc IT - Documentatie/Tom/agenda 28-09-2015.xlsx
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>wie</t>
   </si>
@@ -178,10 +178,16 @@
     <t>Datum: 29-09-2015</t>
   </si>
   <si>
-    <t>Tijd: 10:00 - 10:30</t>
-  </si>
-  <si>
     <t>Locatie: Lokaal BN0330</t>
+  </si>
+  <si>
+    <t>Tijd: 09:30  - 10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problemen bespreken over achterstand. </t>
+  </si>
+  <si>
+    <t>v/t</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1064,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1095,7 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="73"/>
       <c r="D3" s="74"/>
@@ -1101,7 +1107,7 @@
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="81" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="82"/>
       <c r="D4" s="83"/>
@@ -1220,26 +1226,34 @@
         <v>10</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E11" s="56">
         <v>4</v>
       </c>
       <c r="F11" s="59" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="39"/>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="E12" s="56">
         <v>5</v>
       </c>
-      <c r="F12" s="57"/>
+      <c r="F12" s="59" t="s">
+        <v>22</v>
+      </c>
       <c r="G12" s="65"/>
       <c r="H12" s="39"/>
       <c r="I12" s="10"/>
@@ -1305,7 +1319,7 @@
       <c r="B18" s="15"/>
       <c r="C18" s="48">
         <f>SUM(C8:C17)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D18" s="48" t="s">
         <v>6</v>

--- a/Barroc IT - Documentatie/Tom/agenda 28-09-2015.xlsx
+++ b/Barroc IT - Documentatie/Tom/agenda 28-09-2015.xlsx
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>wie</t>
   </si>
@@ -181,13 +181,16 @@
     <t>Locatie: Lokaal BN0330</t>
   </si>
   <si>
-    <t>Tijd: 09:30  - 10:30</t>
-  </si>
-  <si>
     <t xml:space="preserve">Problemen bespreken over achterstand. </t>
   </si>
   <si>
     <t>v/t</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AGENDA Barroc-IT Groep</t>
+  </si>
+  <si>
+    <t>Tijd: 09:30  - 09:50</t>
   </si>
 </sst>
 </file>
@@ -619,7 +622,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -670,9 +673,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -752,6 +752,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1064,7 +1070,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,49 +1090,51 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="72" t="s">
+    <row r="3" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="77"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="80"/>
+      <c r="B4" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="81"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="79"/>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="88"/>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1139,22 +1147,22 @@
       <c r="D6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="34" t="s">
+      <c r="E6" s="44"/>
+      <c r="F6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="35"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="34"/>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="44"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="43"/>
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -1167,19 +1175,19 @@
       <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="55">
         <v>1</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="38"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="37"/>
       <c r="I8" s="10"/>
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="89" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="9">
@@ -1188,14 +1196,14 @@
       <c r="D9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="55">
         <v>2</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="38"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="37"/>
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -1208,14 +1216,14 @@
       <c r="D10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="55">
         <v>3</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="37"/>
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -1226,16 +1234,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="56">
+        <v>28</v>
+      </c>
+      <c r="E11" s="55">
         <v>4</v>
       </c>
-      <c r="F11" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="39"/>
+      <c r="F11" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -1248,145 +1256,145 @@
       <c r="D12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="55">
         <v>5</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="65"/>
-      <c r="H12" s="39"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="56">
+      <c r="E13" s="55">
         <v>6</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="39"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="38"/>
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="13"/>
-      <c r="E14" s="56">
+      <c r="E14" s="55">
         <v>7</v>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="39"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="56">
+      <c r="E15" s="55">
         <v>8</v>
       </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="38"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
       <c r="C16" s="9"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="56">
+      <c r="E16" s="55">
         <v>9</v>
       </c>
-      <c r="F16" s="60"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="38"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="37"/>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="47"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
-      <c r="C18" s="48">
+      <c r="C18" s="47">
         <f>SUM(C8:C17)</f>
         <v>50</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="52" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="16"/>
-      <c r="G18" s="42"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="18"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="51" t="s">
+      <c r="C19" s="48"/>
+      <c r="D19" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="52" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="19"/>
-      <c r="G19" s="43"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="51" t="s">
+      <c r="C20" s="48"/>
+      <c r="D20" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="52" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="19"/>
-      <c r="G20" s="63"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="51" t="s">
+      <c r="C21" s="48"/>
+      <c r="D21" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="52" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="19"/>
-      <c r="G21" s="63"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="52" t="s">
+      <c r="C22" s="49"/>
+      <c r="D22" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="53" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="22"/>
-      <c r="G22" s="64"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="23" t="s">
         <v>20</v>
       </c>
@@ -1575,7 +1583,7 @@
     <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="55" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="78" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1614,12 +1622,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8428B090D81B34DA19517DD6F855647" ma:contentTypeVersion="0" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="461551752daf7baccd316804784cc5e1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b118b0825d757084c8d1e1ffd33f200c">
     <xsd:element name="properties">
@@ -1668,6 +1670,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
   <ds:schemaRefs>
@@ -1677,20 +1685,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B5FF3C-AF10-4D69-A171-7686A3EF9E92}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1703,4 +1697,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>